--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd80-Ctla4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd80-Ctla4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.40041266666667</v>
+        <v>0.257284</v>
       </c>
       <c r="H2">
-        <v>91.201238</v>
+        <v>0.771852</v>
       </c>
       <c r="I2">
-        <v>0.8640973522824783</v>
+        <v>0.05106290078335718</v>
       </c>
       <c r="J2">
-        <v>0.8640973522824784</v>
+        <v>0.05106290078335718</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1258873333333333</v>
+        <v>0.01388066666666667</v>
       </c>
       <c r="N2">
-        <v>0.377662</v>
+        <v>0.041642</v>
       </c>
       <c r="O2">
-        <v>0.9006878064602293</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9006878064602293</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>3.827026882839555</v>
+        <v>0.003571273442666667</v>
       </c>
       <c r="R2">
-        <v>34.443241945556</v>
+        <v>0.032141460984</v>
       </c>
       <c r="S2">
-        <v>0.7782819487953974</v>
+        <v>0.05106290078335718</v>
       </c>
       <c r="T2">
-        <v>0.7782819487953975</v>
+        <v>0.05106290078335718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.40041266666667</v>
+        <v>4.356394000000001</v>
       </c>
       <c r="H3">
-        <v>91.201238</v>
+        <v>13.069182</v>
       </c>
       <c r="I3">
-        <v>0.8640973522824783</v>
+        <v>0.8646092045957484</v>
       </c>
       <c r="J3">
-        <v>0.8640973522824784</v>
+        <v>0.8646092045957485</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.041642</v>
       </c>
       <c r="O3">
-        <v>0.09931219353977067</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.09931219353977067</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4219779947551111</v>
+        <v>0.06046965298266668</v>
       </c>
       <c r="R3">
-        <v>3.797801952796</v>
+        <v>0.5442268768440001</v>
       </c>
       <c r="S3">
-        <v>0.08581540348708087</v>
+        <v>0.8646092045957484</v>
       </c>
       <c r="T3">
-        <v>0.08581540348708089</v>
+        <v>0.8646092045957485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.356394000000001</v>
+        <v>0.424892</v>
       </c>
       <c r="H4">
-        <v>13.069182</v>
+        <v>1.274676</v>
       </c>
       <c r="I4">
-        <v>0.1238255730991045</v>
+        <v>0.08432789462089441</v>
       </c>
       <c r="J4">
-        <v>0.1238255730991045</v>
+        <v>0.08432789462089442</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1258873333333333</v>
+        <v>0.01388066666666667</v>
       </c>
       <c r="N4">
-        <v>0.377662</v>
+        <v>0.041642</v>
       </c>
       <c r="O4">
-        <v>0.9006878064602293</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9006878064602293</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.5484148236093334</v>
+        <v>0.005897784221333333</v>
       </c>
       <c r="R4">
-        <v>4.935733412484001</v>
+        <v>0.053080057992</v>
       </c>
       <c r="S4">
-        <v>0.1115281838183132</v>
+        <v>0.08432789462089441</v>
       </c>
       <c r="T4">
-        <v>0.1115281838183132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.356394000000001</v>
-      </c>
-      <c r="H5">
-        <v>13.069182</v>
-      </c>
-      <c r="I5">
-        <v>0.1238255730991045</v>
-      </c>
-      <c r="J5">
-        <v>0.1238255730991045</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.01388066666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.041642</v>
-      </c>
-      <c r="O5">
-        <v>0.09931219353977067</v>
-      </c>
-      <c r="P5">
-        <v>0.09931219353977067</v>
-      </c>
-      <c r="Q5">
-        <v>0.06046965298266668</v>
-      </c>
-      <c r="R5">
-        <v>0.5442268768440001</v>
-      </c>
-      <c r="S5">
-        <v>0.01229738928079129</v>
-      </c>
-      <c r="T5">
-        <v>0.01229738928079129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.424892</v>
-      </c>
-      <c r="H6">
-        <v>1.274676</v>
-      </c>
-      <c r="I6">
-        <v>0.01207707461841714</v>
-      </c>
-      <c r="J6">
-        <v>0.01207707461841714</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1258873333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.377662</v>
-      </c>
-      <c r="O6">
-        <v>0.9006878064602293</v>
-      </c>
-      <c r="P6">
-        <v>0.9006878064602293</v>
-      </c>
-      <c r="Q6">
-        <v>0.05348852083466666</v>
-      </c>
-      <c r="R6">
-        <v>0.481396687512</v>
-      </c>
-      <c r="S6">
-        <v>0.01087767384651864</v>
-      </c>
-      <c r="T6">
-        <v>0.01087767384651864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.424892</v>
-      </c>
-      <c r="H7">
-        <v>1.274676</v>
-      </c>
-      <c r="I7">
-        <v>0.01207707461841714</v>
-      </c>
-      <c r="J7">
-        <v>0.01207707461841714</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01388066666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.041642</v>
-      </c>
-      <c r="O7">
-        <v>0.09931219353977067</v>
-      </c>
-      <c r="P7">
-        <v>0.09931219353977067</v>
-      </c>
-      <c r="Q7">
-        <v>0.005897784221333333</v>
-      </c>
-      <c r="R7">
-        <v>0.053080057992</v>
-      </c>
-      <c r="S7">
-        <v>0.001199400771898495</v>
-      </c>
-      <c r="T7">
-        <v>0.001199400771898495</v>
+        <v>0.08432789462089442</v>
       </c>
     </row>
   </sheetData>
